--- a/biology/Zoologie/Didymocentrus_lesueurii/Didymocentrus_lesueurii.xlsx
+++ b/biology/Zoologie/Didymocentrus_lesueurii/Didymocentrus_lesueurii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Didymocentrus lesueurii est une espèce de scorpions de la famille des Diplocentridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Sainte-Lucie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Sainte-Lucie.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Francke en 1978 mesure 45,00 mm et les femelles de 44,10 à 45,00 mm[2].
-La femelle décrite par Teruel et Questel en 2020 mesure 43,50 mm et les mâles de 43,05 à 46,65 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Francke en 1978 mesure 45,00 mm et les femelles de 44,10 à 45,00 mm.
+La femelle décrite par Teruel et Questel en 2020 mesure 43,50 mm et les mâles de 43,05 à 46,65 mm.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Scorpio lesueurii par Gervais en 1844. Elle est placée dans le genre Didymocentrus par Kraepelin en 1905[3].
-Diplocentrus antillanus[4] a été placée en synonymie par Francke en 1978[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Scorpio lesueurii par Gervais en 1844. Elle est placée dans le genre Didymocentrus par Kraepelin en 1905.
+Diplocentrus antillanus a été placée en synonymie par Francke en 1978.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Charles Alexandre Lesueur[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Charles Alexandre Lesueur.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Gervais, 1844 : Remarques sur la famille des scorpions et description de plusieurs espèces nouvelles de la collection du Muséum. Archives du Muséum d'Histoire Naturelle, Paris, vol. 4, p. 201-240 (texte intégral).</t>
         </is>
